--- a/ig/ch-lab-order/ValueSet-clinical-focus-vitamin-d.xlsx
+++ b/ig/ch-lab-order/ValueSet-clinical-focus-vitamin-d.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -74,7 +74,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch)</t>
+  </si>
+  <si>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -357,45 +360,45 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -420,7 +423,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -428,29 +431,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -475,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -483,29 +486,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -538,29 +541,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-lab-order/ValueSet-clinical-focus-vitamin-d.xlsx
+++ b/ig/ch-lab-order/ValueSet-clinical-focus-vitamin-d.xlsx
@@ -7,9 +7,9 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOMED CT 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from SNOMED CT 3" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -77,7 +77,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
